--- a/pred_ohlcv/54_21/2020-01-24 WPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 WPX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>523683.1323803817</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>492334.1955803817</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>374052.2030803817</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>374052.2030803817</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>382306.3149803817</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>383172.8627803817</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>387387.1807803817</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>340540.4765937879</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>324542.2302937879</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>363969.9487937879</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>363969.9487937879</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>363969.9487937879</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>363969.9487937879</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>343589.3675937879</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>375167.4280937879</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>375162.4280937879</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>370826.0012937879</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>366904.1359937879</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>360694.6880937879</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>361043.1299937879</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>361400.5594937879</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>361405.5594937879</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>359152.3185937879</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>359157.3185937879</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>318434.1325937879</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>328433.9076937879</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-267604.3109062121</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-267604.3109062121</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-267604.3109062121</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-263696.2302062121</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-289076.5886062121</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-284451.5886062121</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-294076.5878062121</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-268690.2294062121</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-296046.8714062121</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-216226.5566062121</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-216231.5566062121</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-216231.5566062121</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-216306.5666564634</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-216306.5666564634</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-235241.6816564634</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-230426.2226564633</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-242577.6348564633</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-242577.6348564633</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-242577.6348564633</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-242577.6348564633</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-242452.6248107553</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-243027.6084292094</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-243027.6084292094</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-243027.6084292094</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-243027.6084292094</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-246078.9868592024</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-246078.9868592024</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-250961.6775592024</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-250979.6775592024</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-250979.6775592024</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-250997.6775592024</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-252305.1558592024</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-252467.1558592024</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-252467.1558592024</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-252431.1558592024</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-254818.7454592024</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-254782.7454592024</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-308825.0746592024</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-266264.7607592024</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-265537.8685592024</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-250493.1421592024</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-251236.7624592024</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-251236.7624592024</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-272525.1089592024</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-227966.1903592024</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-233038.9400592024</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-233038.8257592024</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-262297.9411592024</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-262297.9411592024</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-262279.9411592024</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-262279.9411592024</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-265427.9932592024</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-266407.8250592024</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-323220.5635592024</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-344758.9052592024</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-334809.9481592024</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-335440.9512592023</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-334863.9481592024</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-319787.7710592024</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-319787.7710592024</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-319787.7710592024</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-319787.7710592024</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-360921.0144592024</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-360905.9605592024</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-403044.0134592024</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-403044.0134592024</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-421299.3482592024</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-421275.3482592024</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-421248.7821592024</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-423248.7821592024</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-423278.9068592024</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-430078.6156592024</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-433578.6156592024</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-460178.1335592024</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-446100.5843592024</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-446214.1743592024</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-446214.1743592024</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-446214.1743592024</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-410401.3992592024</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-410383.3992592024</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-410383.3992592024</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-410383.3992592024</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-420483.3992592024</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-420478.3992592024</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-420478.3992592024</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-420478.3992592024</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-420473.3992592024</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-424365.8271592024</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-422071.1641592024</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-422071.1641592024</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-422185.1641592024</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-422293.1641592024</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-422495.8301592025</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-422495.8301592025</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-421222.9142592024</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-421396.6749592024</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-421391.6749592024</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-421391.6749592024</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-416014.8280592024</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-417569.0982592024</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-429406.8320592024</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-429380.2013592024</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-440729.5237592024</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-439991.8942592025</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-447562.4018540283</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-447562.4018540283</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-451579.9464540284</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-451579.9464540284</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-451579.9464540284</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-447309.1264540284</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-447309.1264540284</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-448309.1264540284</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-441907.3031540284</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-437019.0080592025</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-437019.0080592025</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-434107.6161592025</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-434107.6161592025</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-434148.2380592026</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-431451.8394592025</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-427363.4422592025</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-427322.8203592025</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-425322.8203592025</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-425322.8203592025</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-425322.8203592025</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-422277.1786592025</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-422277.1786592025</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-422296.9786592025</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-420536.8083592025</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-420551.8083592025</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-420546.8083592025</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-420546.8083592025</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-434759.2627592025</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-434759.2627592025</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-434759.6408592025</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-434767.8300592025</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-434772.8848592025</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-535054.9310592025</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-561574.6820592026</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-590135.4297592025</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-542501.2541592026</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-538164.5246592026</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-538164.5246592026</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-538269.1246592025</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-538263.1246592025</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-540907.3564592025</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-540707.3564592025</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-527574.2242592025</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-527574.2242592025</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-534971.3037592025</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-534955.0539592025</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-530957.052512</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-530965.052512</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-530965.052512</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-530947.290012</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-538877.810112</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-529640.1226956066</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-530028.1843956065</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-529647.9512956066</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-532742.9863956065</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-527730.3207956066</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-528717.3758956066</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-528759.3758956066</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-525563.7816058785</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-525013.4810058785</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-525580.7238058785</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-525580.7238058785</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-534240.3040058786</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-586182.1809058787</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-586166.2325058787</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-589181.0609058787</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-606230.8063058787</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-616439.7734058787</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-615170.0264058787</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-613608.0238058787</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-613608.0238058787</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-613608.0238058787</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-620181.3778058788</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-620156.2569058788</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-659545.6008058788</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-659545.6008058788</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-660881.2926058788</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-660881.2926058788</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-660514.9917058788</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-635489.1796346097</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-635489.1796346097</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-643468.8046346097</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-643468.8046346097</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-656155.2184346097</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-655500.7082346097</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-655484.8105346097</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-663331.5931346097</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-663315.7393346097</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-663315.7393346097</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-661719.7779346097</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-661637.1657346097</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-661637.1657346097</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-682835.9812346097</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-708786.0999346097</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-708770.2597346097</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-708778.7972346097</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-708778.7972346097</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-722313.6874346097</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-720982.1025346097</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-704798.5687346098</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-730991.1920346097</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-744013.7456346097</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-743996.7456346097</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-742833.3418346097</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-742878.2148346098</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-744039.1161346098</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-861391.2690346098</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-949071.9681346097</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-990285.3360346097</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1009632.46803461</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1376786.198790403</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1398182.478690403</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1405782.384590402</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1536299.797682494</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1536291.153982494</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-1666103.663982495</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1726603.464882495</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1726603.464882495</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1726553.390782495</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1699553.390782495</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1704004.190782495</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1741002.733382495</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1710552.733382495</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1712518.507482495</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1753739.369682495</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1753739.369682495</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-1770391.478282495</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-1769051.600282495</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-1828124.557282495</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-1828124.557282495</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-1817187.800182495</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-1818772.340046558</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-1799409.612846558</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1776798.132699038</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-1847458.722099038</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-1830681.872699038</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-1830679.109199038</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-1902201.839220127</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1907350.790320127</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-1907350.790320127</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-2053373.801769431</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-2334758.341930269</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-2334416.909530269</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-2287339.541074532</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-2239784.078191916</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-2241321.181491916</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-2256786.430791915</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-2256443.927191915</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-2239825.889291916</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-2326212.004391916</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-2326212.004391916</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-2326166.713991916</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-2300789.645191916</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-2379174.142840565</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-2381895.142840565</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-2391901.142840565</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-2391787.548450058</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-2392790.660850058</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-2437015.922650058</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-2592308.745350058</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-2577308.745350058</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-2736596.361228798</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-2747727.722228798</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-2747672.172328798</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-2762582.168428798</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-2691862.834844082</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-2691718.284944082</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-2685415.480844082</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-2685415.480844082</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-2685415.480844082</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-2685415.480844082</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-2685409.480844082</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-2685409.480844082</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-2694018.202951111</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-2690750.008923084</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-2714262.183323083</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-2730277.266423083</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-2752566.802841422</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-2750498.703741422</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-2856972.459541422</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-2929453.812141422</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-3081178.745241422</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-3271449.771341422</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-3290363.348241422</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-3320561.445541422</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-3320561.445541422</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-3269913.077741422</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-3187882.747241422</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-2948030.186641422</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-2991844.936441422</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-2832530.850241422</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-2975720.746341422</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-2975666.746341422</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-3007568.542341422</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-3007568.542341422</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-3007526.542341422</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-3015108.985041422</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-3052623.202941422</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-3052623.202941422</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-3052623.202941422</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-3187127.774641423</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-3187127.774641423</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-3187327.198141423</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-3320232.187541422</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-3311552.886941422</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-3311574.886941422</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-3391263.019841422</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-3422410.555841422</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-3520834.125541422</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-3959476.931341422</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-4125357.945141422</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-4125357.945141422</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-3874127.750206158</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-3874134.350206159</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-3812858.249406158</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-3677579.829653773</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-3767571.921553773</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-3769812.896053773</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-3814731.548553773</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-4393834.234673064</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-4794585.787773064</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-4794585.787773064</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-4792219.507173064</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-5101550.893073064</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-5582572.004373064</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-5647382.366673064</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-5631682.539573064</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-5691826.681873064</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-5806388.672773064</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-5847980.274873064</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-6308812.849773064</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-6550568.356873064</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-6626887.187573064</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-6641859.265268111</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-6607120.750268111</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-6653373.542068111</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-6651194.815968111</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-6651339.349468111</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-6650275.37102201</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-6749816.38750278</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-6829847.820794018</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-6843507.445594018</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-6976046.273294019</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-7015989.565394019</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-7120211.378294019</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-7226351.298794019</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-7375179.861194019</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-7338412.97873453</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-6982366.947595927</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-7022671.483095927</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-7024933.104095927</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-7003135.516495927</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-6884725.306395927</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-6910684.003595928</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-6934134.202995928</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-6906439.279095928</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-6924568.202695929</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-6927788.949295929</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-6937694.713295929</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-8465513.115873586</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-8401725.131373586</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-8375067.807973586</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-8069026.194273586</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-8208111.961673587</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-8432499.037274061</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-8411880.49577406</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-8415419.00237406</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-8399910.604554795</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-8226587.043029546</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-8233796.521580554</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-8234021.431280553</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-8205118.867980554</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-8185063.392580554</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-8158881.473880554</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-8158848.473880554</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-8052148.034537809</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-8162573.828095486</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-8327289.622395487</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-8510141.465719547</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-8470159.170019547</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-8616574.344067171</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-8625506.536167171</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-8620101.836367171</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-8647195.266167171</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-8648164.89496717</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-8634251.70326717</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-8671272.033767169</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-8579156.183367169</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-8582788.488667168</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-8624584.165467167</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-8624576.165467167</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-8627395.463367168</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-8657621.968767168</v>
       </c>
       <c r="H879">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-8650485.642767169</v>
       </c>
       <c r="H880">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-8634301.267367169</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-8637435.387167169</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-8668581.406867169</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-8659328.04456717</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-8748922.56936717</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-8758092.22066717</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-8780457.02016717</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-8830207.18676717</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-8921812.152567171</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-9202461.13326717</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-9197184.657967171</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-9265695.18036717</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-9265175.94346717</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-9355172.26016717</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-9289758.76256717</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-9296970.26706717</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-9294006.44586717</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-9313256.874867169</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-9313256.874867169</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-9313247.874867169</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-9317129.351267168</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-9319582.923767168</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-9278339.665397275</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-9278348.665397275</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-9247258.484297276</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-9252254.176697275</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-9277035.340397274</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-9271350.105897274</v>
       </c>
       <c r="H908">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-9273697.121997274</v>
       </c>
       <c r="H909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-9293033.679497274</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-9285802.766997274</v>
       </c>
       <c r="H911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-9283426.712497273</v>
       </c>
       <c r="H912">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-9231864.366359459</v>
       </c>
       <c r="H916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-9179557.769759459</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-9203118.855807129</v>
       </c>
       <c r="H924">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-9464297.217807129</v>
       </c>
       <c r="H929">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-9481823.355707131</v>
       </c>
       <c r="H936">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-9475652.881207131</v>
       </c>
       <c r="H937">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 WPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 WPX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>523683.1323803817</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>492334.1955803817</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>374052.2030803817</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>374052.2030803817</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>382306.3149803817</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>383172.8627803817</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>387387.1807803817</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>340540.4765937879</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>324542.2302937879</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>363969.9487937879</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>363969.9487937879</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>363969.9487937879</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>343589.3675937879</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,7 +886,7 @@
         <v>366904.1359937879</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>360694.6880937879</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>361043.1299937879</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>361400.5594937879</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>361405.5594937879</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>359152.3185937879</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>359157.3185937879</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>318434.1325937879</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>328433.9076937879</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-267604.3109062121</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-267604.3109062121</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-267604.3109062121</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-263696.2302062121</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-289076.5886062121</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-242577.6348564633</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-251236.7624592024</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-233038.9400592024</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-262279.9411592024</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-262279.9411592024</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-265427.9932592024</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-266407.8250592024</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-323220.5635592024</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-344758.9052592024</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-335440.9512592023</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-334863.9481592024</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-319787.7710592024</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-319787.7710592024</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-319787.7710592024</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-360921.0144592024</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-360905.9605592024</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-403044.0134592024</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-403044.0134592024</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-421299.3482592024</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-421248.7821592024</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-423248.7821592024</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-423278.9068592024</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-430078.6156592024</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-433578.6156592024</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-460178.1335592024</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-446100.5843592024</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-446214.1743592024</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-446214.1743592024</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-446214.1743592024</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-410401.3992592024</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-410383.3992592024</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-410383.3992592024</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-410383.3992592024</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-420483.3992592024</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-420478.3992592024</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-420478.3992592024</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-420478.3992592024</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-420473.3992592024</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-424365.8271592024</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-422071.1641592024</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-422071.1641592024</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-422185.1641592024</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-422293.1641592024</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-422495.8301592025</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-422495.8301592025</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-421222.9142592024</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-421396.6749592024</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-421391.6749592024</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-421391.6749592024</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-416014.8280592024</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-417569.0982592024</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-429406.8320592024</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-429380.2013592024</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-440729.5237592024</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-439991.8942592025</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-447562.4018540283</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-447562.4018540283</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-451579.9464540284</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-451579.9464540284</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-451579.9464540284</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-447309.1264540284</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-447309.1264540284</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-448309.1264540284</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-441907.3031540284</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-437019.0080592025</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-437019.0080592025</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-434107.6161592025</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-434107.6161592025</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-434148.2380592026</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-431451.8394592025</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-427363.4422592025</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-427322.8203592025</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-425322.8203592025</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-425322.8203592025</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-425322.8203592025</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-422277.1786592025</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-422277.1786592025</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-422296.9786592025</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-420536.8083592025</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-420551.8083592025</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-420546.8083592025</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-420546.8083592025</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-434759.2627592025</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-434759.2627592025</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-434759.6408592025</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-434767.8300592025</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-434772.8848592025</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-535054.9310592025</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-561574.6820592026</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-590135.4297592025</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-538269.1246592025</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-538263.1246592025</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-540907.3564592025</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-540707.3564592025</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-527574.2242592025</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-527574.2242592025</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-534971.3037592025</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-534955.0539592025</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-530957.052512</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-530965.052512</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-530965.052512</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-530947.290012</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-538877.810112</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-529640.1226956066</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-529640.1226956066</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-532742.9863956065</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-527730.3207956066</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-528759.3758956066</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-525569.7816058785</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-606230.8063058787</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-616439.7734058787</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-613608.0238058787</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-613608.0238058787</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-620181.3778058788</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-620156.2569058788</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-659545.6008058788</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-660881.2926058788</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-635489.1796346097</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-643468.8046346097</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-661719.7779346097</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-661637.1657346097</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-661637.1657346097</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-682835.9812346097</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-708786.0999346097</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-708770.2597346097</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-708778.7972346097</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-708778.7972346097</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-722313.6874346097</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-730991.1920346097</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-744013.7456346097</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-742878.2148346098</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-744039.1161346098</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1376786.198790403</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1398182.478690403</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1405782.384590402</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1536299.797682494</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1536291.153982494</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-1666103.663982495</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1726603.464882495</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1726603.464882495</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1726553.390782495</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1699553.390782495</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1704004.190782495</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1741002.733382495</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1710552.733382495</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1712518.507482495</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1753739.369682495</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1753739.369682495</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-1770391.478282495</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-1769051.600282495</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-1828124.557282495</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-1828124.557282495</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-1817187.800182495</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-1818772.340046558</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-1799409.612846558</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1776798.132699038</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-1847458.722099038</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-1830681.872699038</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-1830679.109199038</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-1902201.839220127</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1907350.790320127</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-1907350.790320127</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-2053373.801769431</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-2334758.341930269</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-2334416.909530269</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-2287339.541074532</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-2239784.078191916</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-2241321.181491916</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-2256786.430791915</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-2256443.927191915</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-2239825.889291916</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-2326212.004391916</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-2326212.004391916</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-2326166.713991916</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-2300789.645191916</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-2379174.142840565</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-2381895.142840565</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-2391901.142840565</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-2391787.548450058</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-2392790.660850058</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-2437015.922650058</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-2592308.745350058</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-2577308.745350058</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-2736596.361228798</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-2747727.722228798</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-2747672.172328798</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-2762582.168428798</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-2691862.834844082</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-2691718.284944082</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-2685415.480844082</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-2685415.480844082</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-2685415.480844082</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-2685415.480844082</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-2685409.480844082</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-2685409.480844082</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-2694018.202951111</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-2690750.008923084</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-2714262.183323083</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-2730277.266423083</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-2752566.802841422</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-2750498.703741422</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-2856972.459541422</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-2929453.812141422</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-3081178.745241422</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-3271449.771341422</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-3290363.348241422</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-3320561.445541422</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-3320561.445541422</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-3269913.077741422</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-3187882.747241422</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-2948030.186641422</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-2991844.936441422</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-2832530.850241422</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-2975720.746341422</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-2975666.746341422</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-3007568.542341422</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-3007568.542341422</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-3007526.542341422</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-3015108.985041422</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-3052623.202941422</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-3052623.202941422</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-3052623.202941422</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-3187127.774641423</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-3187127.774641423</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-3187327.198141423</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-3320232.187541422</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-3311552.886941422</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-3311574.886941422</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-3391263.019841422</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-3422410.555841422</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-3520834.125541422</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-3959476.931341422</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-4125357.945141422</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-4125357.945141422</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-3874127.750206158</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-3874134.350206159</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-3812858.249406158</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-3677579.829653773</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-3767571.921553773</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-3769812.896053773</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-3814731.548553773</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-4393834.234673064</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-4794585.787773064</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-4794585.787773064</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-4792219.507173064</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-5101550.893073064</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-5582572.004373064</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-5647382.366673064</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-5631682.539573064</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-5691826.681873064</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-5806388.672773064</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-5847980.274873064</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-6308812.849773064</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-6550568.356873064</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-6626887.187573064</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-6641859.265268111</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-6607120.750268111</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-6653373.542068111</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-6651194.815968111</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-6651339.349468111</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-6650275.37102201</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-6749816.38750278</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-6829847.820794018</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-6843507.445594018</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-6976046.273294019</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-7015989.565394019</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-7120211.378294019</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-7226351.298794019</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-7375179.861194019</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-7338412.97873453</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-6982366.947595927</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-7022671.483095927</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-7024933.104095927</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-7003135.516495927</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-6884725.306395927</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-6910684.003595928</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-6934134.202995928</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-6906439.279095928</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-6924568.202695929</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-6927788.949295929</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-6937694.713295929</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-8432499.037274061</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-8411880.49577406</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-8415419.00237406</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-8399910.604554795</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-8226587.043029546</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-8233796.521580554</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-8234021.431280553</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-8205118.867980554</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-8185063.392580554</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-8158881.473880554</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-8158848.473880554</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-8052148.034537809</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-8162573.828095486</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-8327289.622395487</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-8510141.465719547</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-8470159.170019547</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-8616574.344067171</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-8625506.536167171</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-8620101.836367171</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-8647195.266167171</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-8648164.89496717</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-8634251.70326717</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-8671272.033767169</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-8579156.183367169</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-8582788.488667168</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-8624584.165467167</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-8624576.165467167</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-8627395.463367168</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-8657621.968767168</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-8634301.267367169</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-8637435.387167169</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-8668581.406867169</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-8659328.04456717</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-8748922.56936717</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-8758092.22066717</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-8780457.02016717</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-8830207.18676717</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-8921812.152567171</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-9197184.657967171</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-9294006.44586717</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-9278348.665397275</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-9285802.766997274</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-9283426.712497273</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-9231864.366359459</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-9179557.769759459</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-9168132.68850713</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-9167546.02210713</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-9169793.535807129</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-9183191.323007129</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-9203118.855807129</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-9354192.90580713</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-9440232.940507129</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-9463925.465807129</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-9464297.217807129</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-9481839.475707131</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-9481823.355707131</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-9475652.881207131</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
